--- a/Code/Results/Cases/Case_0_240/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_240/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4.920343712366617</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>13.08387865147747</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>15.06424869506237</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>72.04483872145924</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3.862440805242484</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.795127594169534</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>64.29153823039277</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>4.780984009461567</v>
+      </c>
+      <c r="D3">
+        <v>12.71456197369518</v>
+      </c>
+      <c r="E3">
+        <v>14.24565656350477</v>
+      </c>
+      <c r="F3">
+        <v>72.84462300420255</v>
+      </c>
+      <c r="G3">
+        <v>3.880428052367454</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>8.671772017008848</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>61.68833734178525</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>4.696551448624008</v>
+      </c>
+      <c r="D4">
+        <v>12.49366618050411</v>
+      </c>
+      <c r="E4">
+        <v>13.72235550810396</v>
+      </c>
+      <c r="F4">
+        <v>73.40740770923667</v>
+      </c>
+      <c r="G4">
+        <v>3.89185064599276</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>8.597983492092592</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>60.04462306992919</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>4.662469148294043</v>
+      </c>
+      <c r="D5">
+        <v>12.40522085290519</v>
+      </c>
+      <c r="E5">
+        <v>13.50406840228313</v>
+      </c>
+      <c r="F5">
+        <v>73.65400773530899</v>
+      </c>
+      <c r="G5">
+        <v>3.896602917968845</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>8.568419324792988</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>59.3640862425089</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>4.656830587025515</v>
+      </c>
+      <c r="D6">
+        <v>12.39063229025267</v>
+      </c>
+      <c r="E6">
+        <v>13.46752325604426</v>
+      </c>
+      <c r="F6">
+        <v>73.69597617898211</v>
+      </c>
+      <c r="G6">
+        <v>3.897397982290841</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>8.563541153874354</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>59.25045894957622</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>4.696090435492378</v>
+      </c>
+      <c r="D7">
+        <v>12.49246688595595</v>
+      </c>
+      <c r="E7">
+        <v>13.71943176560294</v>
+      </c>
+      <c r="F7">
+        <v>73.41066454632184</v>
+      </c>
+      <c r="G7">
+        <v>3.891914339126309</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>8.597582714613482</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>60.03548748897533</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>4.872080054554369</v>
+      </c>
+      <c r="D8">
+        <v>12.95537846883311</v>
+      </c>
+      <c r="E8">
+        <v>14.78637695862133</v>
+      </c>
+      <c r="F8">
+        <v>72.30524286894028</v>
+      </c>
+      <c r="G8">
+        <v>3.868565723210934</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>8.752197902001033</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>63.40374760750476</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>5.224574462952876</v>
+      </c>
+      <c r="D9">
+        <v>13.90556224455829</v>
+      </c>
+      <c r="E9">
+        <v>16.70921665621724</v>
+      </c>
+      <c r="F9">
+        <v>70.7432518735677</v>
+      </c>
+      <c r="G9">
+        <v>3.825669288640507</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>9.070291713402732</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>69.6239717415049</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>5.48608420175833</v>
+      </c>
+      <c r="D10">
+        <v>14.62439418975672</v>
+      </c>
+      <c r="E10">
+        <v>18.0137027584762</v>
+      </c>
+      <c r="F10">
+        <v>70.01850087210208</v>
+      </c>
+      <c r="G10">
+        <v>3.795748866253823</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>9.312358823007656</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>73.93247745015054</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>5.60525849906671</v>
+      </c>
+      <c r="D11">
+        <v>14.95499502834553</v>
+      </c>
+      <c r="E11">
+        <v>18.58313611833464</v>
+      </c>
+      <c r="F11">
+        <v>69.79307256516429</v>
+      </c>
+      <c r="G11">
+        <v>3.782444030927007</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>9.424174726030895</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>75.83188147838625</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>5.650394185381044</v>
+      </c>
+      <c r="D12">
+        <v>15.08064078373205</v>
+      </c>
+      <c r="E12">
+        <v>18.7953015060577</v>
+      </c>
+      <c r="F12">
+        <v>69.72379176844379</v>
+      </c>
+      <c r="G12">
+        <v>3.777446308350572</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>9.466752609809813</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>76.54221060178003</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>5.640673421697408</v>
+      </c>
+      <c r="D13">
+        <v>15.05356137882663</v>
+      </c>
+      <c r="E13">
+        <v>18.74976216069583</v>
+      </c>
+      <c r="F13">
+        <v>69.7379794466311</v>
+      </c>
+      <c r="G13">
+        <v>3.778520913228191</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>9.457572332040563</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>76.38962866403419</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>5.60897181736517</v>
+      </c>
+      <c r="D14">
+        <v>14.96532318892138</v>
+      </c>
+      <c r="E14">
+        <v>18.60066060545869</v>
+      </c>
+      <c r="F14">
+        <v>69.7870440388665</v>
+      </c>
+      <c r="G14">
+        <v>3.782032073958297</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>9.427672952452081</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>75.89050076262821</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>5.589553959183507</v>
+      </c>
+      <c r="D15">
+        <v>14.91133227161446</v>
+      </c>
+      <c r="E15">
+        <v>18.50887992551745</v>
+      </c>
+      <c r="F15">
+        <v>69.81922526545461</v>
+      </c>
+      <c r="G15">
+        <v>3.784187931302739</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>9.409389190712055</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>75.58360161162931</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>5.478298030317739</v>
+      </c>
+      <c r="D16">
+        <v>14.602855384603</v>
+      </c>
+      <c r="E16">
+        <v>17.97600437682472</v>
+      </c>
+      <c r="F16">
+        <v>70.03542344425568</v>
+      </c>
+      <c r="G16">
+        <v>3.796624236149779</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>9.305084778036111</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>73.80710734149898</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>5.410082230746474</v>
+      </c>
+      <c r="D17">
+        <v>14.41448781972277</v>
+      </c>
+      <c r="E17">
+        <v>17.64294088350627</v>
+      </c>
+      <c r="F17">
+        <v>70.19552060182041</v>
+      </c>
+      <c r="G17">
+        <v>3.804329510136088</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>9.241525547871865</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>72.70159083478744</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>5.370867403985812</v>
+      </c>
+      <c r="D18">
+        <v>14.30648570631379</v>
+      </c>
+      <c r="E18">
+        <v>17.4491138772691</v>
+      </c>
+      <c r="F18">
+        <v>70.29734998197424</v>
+      </c>
+      <c r="G18">
+        <v>3.808790417002857</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>9.205128199463566</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>72.06003565326519</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>5.357594355427589</v>
+      </c>
+      <c r="D19">
+        <v>14.26997891643359</v>
+      </c>
+      <c r="E19">
+        <v>17.38310047648818</v>
+      </c>
+      <c r="F19">
+        <v>70.33346899360767</v>
+      </c>
+      <c r="G19">
+        <v>3.810305892570237</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>9.192832503736334</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>71.8418467198134</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>5.417341921277861</v>
+      </c>
+      <c r="D20">
+        <v>14.43450498124117</v>
+      </c>
+      <c r="E20">
+        <v>17.67862991243085</v>
+      </c>
+      <c r="F20">
+        <v>70.17746158004347</v>
+      </c>
+      <c r="G20">
+        <v>3.803506289767728</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>9.24827502197566</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>72.81986585925912</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>5.618283321848324</v>
+      </c>
+      <c r="D21">
+        <v>14.99122899077282</v>
+      </c>
+      <c r="E21">
+        <v>18.64454948044385</v>
+      </c>
+      <c r="F21">
+        <v>69.77218715001773</v>
+      </c>
+      <c r="G21">
+        <v>3.780999690129404</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>9.43644878664205</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>76.03735062342238</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>5.749643289891035</v>
+      </c>
+      <c r="D22">
+        <v>15.35770926666749</v>
+      </c>
+      <c r="E22">
+        <v>19.25563189818502</v>
+      </c>
+      <c r="F22">
+        <v>69.60160369332493</v>
+      </c>
+      <c r="G22">
+        <v>3.766524745210488</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>9.560802454474686</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>78.08803581092567</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>5.679537492822877</v>
+      </c>
+      <c r="D23">
+        <v>15.16188869609623</v>
+      </c>
+      <c r="E23">
+        <v>18.93133532760758</v>
+      </c>
+      <c r="F23">
+        <v>69.68364830389054</v>
+      </c>
+      <c r="G23">
+        <v>3.774230071444435</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>9.494309287197691</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>76.9983717721996</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>5.414059802922022</v>
+      </c>
+      <c r="D24">
+        <v>14.42545430518964</v>
+      </c>
+      <c r="E24">
+        <v>17.66250220307173</v>
+      </c>
+      <c r="F24">
+        <v>70.18559566034254</v>
+      </c>
+      <c r="G24">
+        <v>3.803878370746271</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>9.245223136455452</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>72.76641232599738</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>5.128640663627113</v>
+      </c>
+      <c r="D25">
+        <v>13.6445264236491</v>
+      </c>
+      <c r="E25">
+        <v>16.2077917856436</v>
+      </c>
+      <c r="F25">
+        <v>71.09561091839569</v>
+      </c>
+      <c r="G25">
+        <v>3.83698101456256</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>8.982722487548051</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>67.98556445774001</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
